--- a/AirpocketAPI/upload/drnew.xlsx
+++ b/AirpocketAPI/upload/drnew.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vahid\source\repos\AirpocketAPI\AirpocketAPI\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vahid\source\repos\AirpocketServices\AirpocketAPI\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Flt No.</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Edition:</t>
   </si>
   <si>
-    <t>Cockpit Crew Daily Schedule</t>
-  </si>
-  <si>
     <t>Date :</t>
   </si>
   <si>
@@ -126,6 +123,12 @@
   </si>
   <si>
     <t>OBS</t>
+  </si>
+  <si>
+    <t>Cabin Crew Daily Schedule</t>
+  </si>
+  <si>
+    <t>IF/Ps</t>
   </si>
 </sst>
 </file>
@@ -843,6 +846,21 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,12 +921,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -917,12 +929,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -966,9 +972,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -990,12 +993,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1034,6 +1031,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1358,106 +1361,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q29"/>
+  <dimension ref="B2:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="17.77734375" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="16" width="17.21875" customWidth="1"/>
-    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="17" width="17.21875" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37"/>
-      <c r="C2" s="39" t="s">
+    <row r="2" spans="2:18" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="42"/>
+      <c r="C2" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="53"/>
+    </row>
+    <row r="3" spans="2:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="43"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="48"/>
-    </row>
-    <row r="3" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="55"/>
+    </row>
+    <row r="4" spans="2:18" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:18" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="50"/>
-    </row>
-    <row r="4" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:17" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="45" t="s">
+      <c r="I6" s="51"/>
+      <c r="J6" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="45" t="s">
+      <c r="R6" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="54"/>
-      <c r="L6" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1476,16 +1485,17 @@
       <c r="I7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="52"/>
-    </row>
-    <row r="8" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="J7" s="57"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="57"/>
+    </row>
+    <row r="8" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1494,16 +1504,17 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="2:17" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="2:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1522,8 +1533,9 @@
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
-    </row>
-    <row r="10" spans="2:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="R9" s="25"/>
+    </row>
+    <row r="10" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -1539,9 +1551,10 @@
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
-      <c r="Q10" s="28"/>
-    </row>
-    <row r="11" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="27"/>
+      <c r="R10" s="28"/>
+    </row>
+    <row r="11" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
         <v>6</v>
       </c>
@@ -1549,7 +1562,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -1563,13 +1576,14 @@
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
-      <c r="Q11" s="24"/>
-    </row>
-    <row r="12" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="30"/>
       <c r="C12" s="32"/>
       <c r="D12" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
@@ -1583,13 +1597,14 @@
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
-      <c r="Q12" s="24"/>
-    </row>
-    <row r="13" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24"/>
+    </row>
+    <row r="13" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="30"/>
       <c r="C13" s="32"/>
       <c r="D13" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -1603,13 +1618,14 @@
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
-      <c r="Q13" s="24"/>
-    </row>
-    <row r="14" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q13" s="23"/>
+      <c r="R13" s="24"/>
+    </row>
+    <row r="14" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="30"/>
       <c r="C14" s="33"/>
       <c r="D14" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -1623,9 +1639,10 @@
       <c r="N14" s="34"/>
       <c r="O14" s="34"/>
       <c r="P14" s="34"/>
-      <c r="Q14" s="35"/>
-    </row>
-    <row r="15" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35"/>
+    </row>
+    <row r="15" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="30"/>
       <c r="C15" s="32"/>
       <c r="D15" s="16" t="s">
@@ -1643,9 +1660,10 @@
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="23"/>
-      <c r="Q15" s="24"/>
-    </row>
-    <row r="16" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="23"/>
+      <c r="R15" s="24"/>
+    </row>
+    <row r="16" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30"/>
       <c r="C16" s="36" t="s">
         <v>9</v>
@@ -1663,9 +1681,10 @@
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
-      <c r="Q16" s="19"/>
-    </row>
-    <row r="17" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="18"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
       <c r="C17" s="20" t="s">
         <v>10</v>
@@ -1683,9 +1702,10 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
-      <c r="Q17" s="24"/>
-    </row>
-    <row r="18" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="23"/>
+      <c r="R17" s="24"/>
+    </row>
+    <row r="18" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="85" t="s">
         <v>11</v>
       </c>
@@ -1693,160 +1713,167 @@
         <v>7</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="19"/>
-    </row>
-    <row r="19" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="85"/>
       <c r="C19" s="17"/>
       <c r="D19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="24"/>
-    </row>
-    <row r="20" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="24"/>
+    </row>
+    <row r="20" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="85"/>
       <c r="C20" s="17"/>
       <c r="D20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="35"/>
-    </row>
-    <row r="21" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="35"/>
+    </row>
+    <row r="21" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="85"/>
       <c r="C21" s="17"/>
       <c r="D21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="24"/>
-    </row>
-    <row r="22" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E21" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
+    </row>
+    <row r="22" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="85"/>
       <c r="C22" s="17"/>
       <c r="D22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="100"/>
-    </row>
-    <row r="23" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+    </row>
+    <row r="23" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="85"/>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="39"/>
       <c r="P23" s="65"/>
       <c r="Q23" s="66"/>
-    </row>
-    <row r="24" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R23" s="67"/>
+    </row>
+    <row r="24" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="85"/>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="64"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="39"/>
       <c r="P24" s="65"/>
-      <c r="Q24" s="78"/>
-    </row>
-    <row r="25" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="72" t="s">
+      <c r="Q24" s="66"/>
+      <c r="R24" s="37"/>
+    </row>
+    <row r="25" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="79"/>
       <c r="F25" s="80"/>
       <c r="G25" s="80"/>
@@ -1859,54 +1886,57 @@
       <c r="N25" s="80"/>
       <c r="O25" s="80"/>
       <c r="P25" s="80"/>
-      <c r="Q25" s="81"/>
-    </row>
-    <row r="26" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="72" t="s">
+      <c r="Q25" s="80"/>
+      <c r="R25" s="81"/>
+    </row>
+    <row r="26" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
       <c r="Q26" s="77"/>
-    </row>
-    <row r="27" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="72" t="s">
+      <c r="R26" s="78"/>
+    </row>
+    <row r="27" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
       <c r="Q27" s="77"/>
-    </row>
-    <row r="28" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
+      <c r="R27" s="78"/>
+    </row>
+    <row r="28" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="82"/>
       <c r="F28" s="83"/>
       <c r="G28" s="83"/>
@@ -1919,84 +1949,87 @@
       <c r="N28" s="83"/>
       <c r="O28" s="83"/>
       <c r="P28" s="83"/>
-      <c r="Q28" s="84"/>
-    </row>
-    <row r="29" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="67" t="s">
+      <c r="Q28" s="83"/>
+      <c r="R28" s="84"/>
+    </row>
+    <row r="29" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="10" t="s">
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="10" t="s">
+      <c r="M29" s="11"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
+      <c r="P29" s="71"/>
       <c r="Q29" s="71"/>
+      <c r="R29" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="E20:Q20"/>
-    <mergeCell ref="E21:Q21"/>
-    <mergeCell ref="E22:Q22"/>
-    <mergeCell ref="L6:O7"/>
-    <mergeCell ref="P6:P7"/>
+  <mergeCells count="49">
+    <mergeCell ref="E20:R20"/>
+    <mergeCell ref="E21:R21"/>
+    <mergeCell ref="E22:R22"/>
+    <mergeCell ref="M6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:Q23"/>
+    <mergeCell ref="E23:R23"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="P29:R29"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:Q26"/>
+    <mergeCell ref="E26:R26"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:Q27"/>
+    <mergeCell ref="E27:R27"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:Q24"/>
+    <mergeCell ref="E24:R24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:Q25"/>
+    <mergeCell ref="E25:R25"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="E28:R28"/>
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="I3:Q3"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="K6:L7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C18:C22"/>
-    <mergeCell ref="E16:Q16"/>
+    <mergeCell ref="E16:R16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:Q17"/>
-    <mergeCell ref="C9:Q9"/>
-    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="E17:R17"/>
+    <mergeCell ref="C9:R9"/>
+    <mergeCell ref="B10:R10"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="C11:C15"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="E15:Q15"/>
+    <mergeCell ref="E11:R11"/>
+    <mergeCell ref="E12:R12"/>
+    <mergeCell ref="E13:R13"/>
+    <mergeCell ref="E14:R14"/>
+    <mergeCell ref="E15:R15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E18:Q18"/>
-    <mergeCell ref="E19:Q19"/>
+    <mergeCell ref="E18:R18"/>
+    <mergeCell ref="E19:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
